--- a/output/tabby/C10001_with_conversions.xlsx
+++ b/output/tabby/C10001_with_conversions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karen/workspaces/test_data_10_tables/output/tabby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E0499F-65BC-9C4C-9D8A-194CDD03015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD87D7D9-CF1E-A544-AE05-12369031EC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49460" yWindow="580" windowWidth="21220" windowHeight="19880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57180" yWindow="920" windowWidth="21220" windowHeight="19460" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CANONICAL FORM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -994,33 +994,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2754,7 +2743,7 @@
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4296,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4782,30 +4771,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175645AB-C78F-374A-BA53-9E7B5183A7C2}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="7"/>
+      <c r="G1" s="6" t="s">
         <v>283</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -4830,1622 +4817,1618 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str" cm="1">
+      <c r="A3" s="3" t="str" cm="1">
         <f t="array" ref="A3">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B2&amp;"0123456789")),LEFT(ENTRIES!B2,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B3" s="4" cm="1">
+      <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B2&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B2,LEN(ENTRIES!B2)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="str" cm="1">
+      <c r="C3" s="3" t="str" cm="1">
         <f t="array" ref="C3">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B2&amp;"0123456789")),LEFT(LABELS!B2,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="D3" s="4" cm="1">
+      <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B2&amp;"0123456789")),VALUE(RIGHT(LABELS!B2,LEN(LABELS!B2)-_xlpm.number_position+1)))</f>
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="7" t="str" cm="1">
+      <c r="G3" s="5" t="str" cm="1">
         <f t="array" ref="G3">CHAR(MIN(CODE(A3:A128)))</f>
         <v>C</v>
       </c>
-      <c r="H3" s="7" t="str" cm="1">
+      <c r="H3" s="5" t="str" cm="1">
         <f t="array" ref="H3">CHAR(MIN(CODE(C3:C33)))</f>
         <v>B</v>
       </c>
-      <c r="I3" s="7" t="str" cm="1">
+      <c r="I3" s="5" t="str" cm="1">
         <f t="array" ref="I3">CHAR(MIN(CODE(C3:C33),CODE(A3:A128)))</f>
         <v>B</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str" cm="1">
+      <c r="A4" s="3" t="str" cm="1">
         <f t="array" ref="A4">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B3&amp;"0123456789")),LEFT(ENTRIES!B3,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B4" s="4" cm="1">
+      <c r="B4" s="3" cm="1">
         <f t="array" ref="B4">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B3&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B3,LEN(ENTRIES!B3)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="str" cm="1">
+      <c r="C4" s="3" t="str" cm="1">
         <f t="array" ref="C4">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B3&amp;"0123456789")),LEFT(LABELS!B3,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="D4" s="4" cm="1">
+      <c r="D4" s="3" cm="1">
         <f t="array" ref="D4">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B3&amp;"0123456789")),VALUE(RIGHT(LABELS!B3,LEN(LABELS!B3)-_xlpm.number_position+1)))</f>
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G4" s="7" t="str" cm="1">
+      <c r="G4" s="5" t="str" cm="1">
         <f t="array" ref="G4">CHAR(MAX(CODE(A3:A128)))</f>
         <v>T</v>
       </c>
-      <c r="H4" s="7" t="str" cm="1">
+      <c r="H4" s="5" t="str" cm="1">
         <f t="array" ref="H4">CHAR(MAX(CODE(C3:C33)))</f>
         <v>T</v>
       </c>
-      <c r="I4" s="7" t="str" cm="1">
+      <c r="I4" s="5" t="str" cm="1">
         <f t="array" ref="I4">CHAR(MAX(CODE(C3:C33),CODE(A3:A128)))</f>
         <v>T</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str" cm="1">
+      <c r="A5" s="3" t="str" cm="1">
         <f t="array" ref="A5">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B4&amp;"0123456789")),LEFT(ENTRIES!B4,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B5" s="4" cm="1">
+      <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B4&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B4,LEN(ENTRIES!B4)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="str" cm="1">
+      <c r="C5" s="3" t="str" cm="1">
         <f t="array" ref="C5">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B4&amp;"0123456789")),LEFT(LABELS!B4,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="D5" s="4" cm="1">
+      <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B4&amp;"0123456789")),VALUE(RIGHT(LABELS!B4,LEN(LABELS!B4)-_xlpm.number_position+1)))</f>
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f>ROWS(_xlfn.UNIQUE(A3:A128))</f>
         <v>18</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <f>ROWS(_xlfn.UNIQUE(C3:C33))</f>
         <v>19</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5">
         <f>ROWS(_xlfn.UNIQUE(_xlfn.VSTACK(A3:A128,C3:C33)))</f>
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str" cm="1">
+      <c r="A6" s="3" t="str" cm="1">
         <f t="array" ref="A6">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B5&amp;"0123456789")),LEFT(ENTRIES!B5,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B6" s="4" cm="1">
+      <c r="B6" s="3" cm="1">
         <f t="array" ref="B6">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B5&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B5,LEN(ENTRIES!B5)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="str" cm="1">
+      <c r="C6" s="3" t="str" cm="1">
         <f t="array" ref="C6">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B5&amp;"0123456789")),LEFT(LABELS!B5,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="D6" s="4" cm="1">
+      <c r="D6" s="3" cm="1">
         <f t="array" ref="D6">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B5&amp;"0123456789")),VALUE(RIGHT(LABELS!B5,LEN(LABELS!B5)-_xlpm.number_position+1)))</f>
         <v>3</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str" cm="1">
+      <c r="A7" s="3" t="str" cm="1">
         <f t="array" ref="A7">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B6&amp;"0123456789")),LEFT(ENTRIES!B6,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B7" s="4" cm="1">
+      <c r="B7" s="3" cm="1">
         <f t="array" ref="B7">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B6&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B6,LEN(ENTRIES!B6)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="str" cm="1">
+      <c r="C7" s="3" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B6&amp;"0123456789")),LEFT(LABELS!B6,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="D7" s="4" cm="1">
+      <c r="D7" s="3" cm="1">
         <f t="array" ref="D7">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B6&amp;"0123456789")),VALUE(RIGHT(LABELS!B6,LEN(LABELS!B6)-_xlpm.number_position+1)))</f>
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <f>MIN(B3:B128)</f>
         <v>5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <f>MIN(D3:D33)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="5">
         <f>MIN(D3:D33,B3:B128)</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str" cm="1">
+      <c r="A8" s="3" t="str" cm="1">
         <f t="array" ref="A8">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B7&amp;"0123456789")),LEFT(ENTRIES!B7,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B8" s="4" cm="1">
+      <c r="B8" s="3" cm="1">
         <f t="array" ref="B8">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B7&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B7,LEN(ENTRIES!B7)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="str" cm="1">
+      <c r="C8" s="3" t="str" cm="1">
         <f t="array" ref="C8">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B7&amp;"0123456789")),LEFT(LABELS!B7,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="D8" s="4" cm="1">
+      <c r="D8" s="3" cm="1">
         <f t="array" ref="D8">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B7&amp;"0123456789")),VALUE(RIGHT(LABELS!B7,LEN(LABELS!B7)-_xlpm.number_position+1)))</f>
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f>MAX(B3:B128)</f>
         <v>11</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <f>MAX(D3:D33)</f>
         <v>11</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="4">
         <f>MAX(D3:D33,B3:B128)</f>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str" cm="1">
+      <c r="A9" s="3" t="str" cm="1">
         <f t="array" ref="A9">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B8&amp;"0123456789")),LEFT(ENTRIES!B8,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B9" s="4" cm="1">
+      <c r="B9" s="3" cm="1">
         <f t="array" ref="B9">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B8&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B8,LEN(ENTRIES!B8)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="str" cm="1">
+      <c r="C9" s="3" t="str" cm="1">
         <f t="array" ref="C9">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B8&amp;"0123456789")),LEFT(LABELS!B8,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="D9" s="4" cm="1">
+      <c r="D9" s="3" cm="1">
         <f t="array" ref="D9">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B8&amp;"0123456789")),VALUE(RIGHT(LABELS!B8,LEN(LABELS!B8)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f>ROWS(_xlfn.UNIQUE(B3:B128))</f>
         <v>7</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <f>ROWS(_xlfn.UNIQUE(D3:D33))</f>
         <v>9</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9">
         <f>ROWS(_xlfn.UNIQUE(_xlfn.VSTACK(B3:B128,D3:D33)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str" cm="1">
+      <c r="A10" s="3" t="str" cm="1">
         <f t="array" ref="A10">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B9&amp;"0123456789")),LEFT(ENTRIES!B9,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B10" s="4" cm="1">
+      <c r="B10" s="3" cm="1">
         <f t="array" ref="B10">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B9&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B9,LEN(ENTRIES!B9)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="str" cm="1">
+      <c r="C10" s="3" t="str" cm="1">
         <f t="array" ref="C10">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B9&amp;"0123456789")),LEFT(LABELS!B9,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="D10" s="4" cm="1">
+      <c r="D10" s="3" cm="1">
         <f t="array" ref="D10">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B9&amp;"0123456789")),VALUE(RIGHT(LABELS!B9,LEN(LABELS!B9)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str" cm="1">
+      <c r="A11" s="3" t="str" cm="1">
         <f t="array" ref="A11">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B10&amp;"0123456789")),LEFT(ENTRIES!B10,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B11" s="4" cm="1">
+      <c r="B11" s="3" cm="1">
         <f t="array" ref="B11">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B10&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B10,LEN(ENTRIES!B10)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="str" cm="1">
+      <c r="C11" s="3" t="str" cm="1">
         <f t="array" ref="C11">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B10&amp;"0123456789")),LEFT(LABELS!B10,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="D11" s="4" cm="1">
+      <c r="D11" s="3" cm="1">
         <f t="array" ref="D11">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B10&amp;"0123456789")),VALUE(RIGHT(LABELS!B10,LEN(LABELS!B10)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str" cm="1">
+      <c r="A12" s="3" t="str" cm="1">
         <f t="array" ref="A12">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B11&amp;"0123456789")),LEFT(ENTRIES!B11,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B12" s="4" cm="1">
+      <c r="B12" s="3" cm="1">
         <f t="array" ref="B12">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B11&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B11,LEN(ENTRIES!B11)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="str" cm="1">
+      <c r="C12" s="3" t="str" cm="1">
         <f t="array" ref="C12">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B11&amp;"0123456789")),LEFT(LABELS!B11,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="D12" s="4" cm="1">
+      <c r="D12" s="3" cm="1">
         <f t="array" ref="D12">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B11&amp;"0123456789")),VALUE(RIGHT(LABELS!B11,LEN(LABELS!B11)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str" cm="1">
+      <c r="A13" s="3" t="str" cm="1">
         <f t="array" ref="A13">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B12&amp;"0123456789")),LEFT(ENTRIES!B12,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B13" s="4" cm="1">
+      <c r="B13" s="3" cm="1">
         <f t="array" ref="B13">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B12&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B12,LEN(ENTRIES!B12)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="str" cm="1">
+      <c r="C13" s="3" t="str" cm="1">
         <f t="array" ref="C13">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B12&amp;"0123456789")),LEFT(LABELS!B12,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="D13" s="4" cm="1">
+      <c r="D13" s="3" cm="1">
         <f t="array" ref="D13">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B12&amp;"0123456789")),VALUE(RIGHT(LABELS!B12,LEN(LABELS!B12)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str" cm="1">
+      <c r="A14" s="3" t="str" cm="1">
         <f t="array" ref="A14">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B13&amp;"0123456789")),LEFT(ENTRIES!B13,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B14" s="4" cm="1">
+      <c r="B14" s="3" cm="1">
         <f t="array" ref="B14">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B13&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B13,LEN(ENTRIES!B13)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="str" cm="1">
+      <c r="C14" s="3" t="str" cm="1">
         <f t="array" ref="C14">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B13&amp;"0123456789")),LEFT(LABELS!B13,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="D14" s="4" cm="1">
+      <c r="D14" s="3" cm="1">
         <f t="array" ref="D14">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B13&amp;"0123456789")),VALUE(RIGHT(LABELS!B13,LEN(LABELS!B13)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str" cm="1">
+      <c r="A15" s="3" t="str" cm="1">
         <f t="array" ref="A15">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B14&amp;"0123456789")),LEFT(ENTRIES!B14,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B15" s="4" cm="1">
+      <c r="B15" s="3" cm="1">
         <f t="array" ref="B15">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B14&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B14,LEN(ENTRIES!B14)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="str" cm="1">
+      <c r="C15" s="3" t="str" cm="1">
         <f t="array" ref="C15">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B14&amp;"0123456789")),LEFT(LABELS!B14,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="D15" s="4" cm="1">
+      <c r="D15" s="3" cm="1">
         <f t="array" ref="D15">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B14&amp;"0123456789")),VALUE(RIGHT(LABELS!B14,LEN(LABELS!B14)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str" cm="1">
+      <c r="A16" s="3" t="str" cm="1">
         <f t="array" ref="A16">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B15&amp;"0123456789")),LEFT(ENTRIES!B15,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B16" s="4" cm="1">
+      <c r="B16" s="3" cm="1">
         <f t="array" ref="B16">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B15&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B15,LEN(ENTRIES!B15)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="str" cm="1">
+      <c r="C16" s="3" t="str" cm="1">
         <f t="array" ref="C16">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B15&amp;"0123456789")),LEFT(LABELS!B15,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="D16" s="4" cm="1">
+      <c r="D16" s="3" cm="1">
         <f t="array" ref="D16">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B15&amp;"0123456789")),VALUE(RIGHT(LABELS!B15,LEN(LABELS!B15)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str" cm="1">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="str" cm="1">
         <f t="array" ref="A17">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B16&amp;"0123456789")),LEFT(ENTRIES!B16,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B17" s="4" cm="1">
+      <c r="B17" s="3" cm="1">
         <f t="array" ref="B17">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B16&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B16,LEN(ENTRIES!B16)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C17" s="4" t="str" cm="1">
+      <c r="C17" s="3" t="str" cm="1">
         <f t="array" ref="C17">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B16&amp;"0123456789")),LEFT(LABELS!B16,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="D17" s="4" cm="1">
+      <c r="D17" s="3" cm="1">
         <f t="array" ref="D17">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B16&amp;"0123456789")),VALUE(RIGHT(LABELS!B16,LEN(LABELS!B16)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str" cm="1">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="str" cm="1">
         <f t="array" ref="A18">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B17&amp;"0123456789")),LEFT(ENTRIES!B17,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B18" s="4" cm="1">
+      <c r="B18" s="3" cm="1">
         <f t="array" ref="B18">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B17&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B17,LEN(ENTRIES!B17)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C18" s="4" t="str" cm="1">
+      <c r="C18" s="3" t="str" cm="1">
         <f t="array" ref="C18">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B17&amp;"0123456789")),LEFT(LABELS!B17,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="D18" s="4" cm="1">
+      <c r="D18" s="3" cm="1">
         <f t="array" ref="D18">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B17&amp;"0123456789")),VALUE(RIGHT(LABELS!B17,LEN(LABELS!B17)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str" cm="1">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str" cm="1">
         <f t="array" ref="A19">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B18&amp;"0123456789")),LEFT(ENTRIES!B18,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B19" s="4" cm="1">
+      <c r="B19" s="3" cm="1">
         <f t="array" ref="B19">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B18&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B18,LEN(ENTRIES!B18)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C19" s="4" t="str" cm="1">
+      <c r="C19" s="3" t="str" cm="1">
         <f t="array" ref="C19">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B18&amp;"0123456789")),LEFT(LABELS!B18,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="D19" s="4" cm="1">
+      <c r="D19" s="3" cm="1">
         <f t="array" ref="D19">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B18&amp;"0123456789")),VALUE(RIGHT(LABELS!B18,LEN(LABELS!B18)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str" cm="1">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str" cm="1">
         <f t="array" ref="A20">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B19&amp;"0123456789")),LEFT(ENTRIES!B19,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B20" s="4" cm="1">
+      <c r="B20" s="3" cm="1">
         <f t="array" ref="B20">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B19&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B19,LEN(ENTRIES!B19)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
-      <c r="C20" s="4" t="str" cm="1">
+      <c r="C20" s="3" t="str" cm="1">
         <f t="array" ref="C20">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B19&amp;"0123456789")),LEFT(LABELS!B19,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="D20" s="4" cm="1">
+      <c r="D20" s="3" cm="1">
         <f t="array" ref="D20">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B19&amp;"0123456789")),VALUE(RIGHT(LABELS!B19,LEN(LABELS!B19)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str" cm="1">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str" cm="1">
         <f t="array" ref="A21">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B20&amp;"0123456789")),LEFT(ENTRIES!B20,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B21" s="4" cm="1">
+      <c r="B21" s="3" cm="1">
         <f t="array" ref="B21">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B20&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B20,LEN(ENTRIES!B20)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C21" s="4" t="str" cm="1">
+      <c r="C21" s="3" t="str" cm="1">
         <f t="array" ref="C21">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B20&amp;"0123456789")),LEFT(LABELS!B20,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="D21" s="4" cm="1">
+      <c r="D21" s="3" cm="1">
         <f t="array" ref="D21">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B20&amp;"0123456789")),VALUE(RIGHT(LABELS!B20,LEN(LABELS!B20)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str" cm="1">
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str" cm="1">
         <f t="array" ref="A22">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B21&amp;"0123456789")),LEFT(ENTRIES!B21,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B22" s="4" cm="1">
+      <c r="B22" s="3" cm="1">
         <f t="array" ref="B22">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B21&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B21,LEN(ENTRIES!B21)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C22" s="4" t="str" cm="1">
+      <c r="C22" s="3" t="str" cm="1">
         <f t="array" ref="C22">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B21&amp;"0123456789")),LEFT(LABELS!B21,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="D22" s="4" cm="1">
+      <c r="D22" s="3" cm="1">
         <f t="array" ref="D22">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B21&amp;"0123456789")),VALUE(RIGHT(LABELS!B21,LEN(LABELS!B21)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str" cm="1">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str" cm="1">
         <f t="array" ref="A23">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B22&amp;"0123456789")),LEFT(ENTRIES!B22,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B23" s="4" cm="1">
+      <c r="B23" s="3" cm="1">
         <f t="array" ref="B23">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B22&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B22,LEN(ENTRIES!B22)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="str" cm="1">
+      <c r="C23" s="3" t="str" cm="1">
         <f t="array" ref="C23">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B22&amp;"0123456789")),LEFT(LABELS!B22,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="D23" s="4" cm="1">
+      <c r="D23" s="3" cm="1">
         <f t="array" ref="D23">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B22&amp;"0123456789")),VALUE(RIGHT(LABELS!B22,LEN(LABELS!B22)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str" cm="1">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str" cm="1">
         <f t="array" ref="A24">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B23&amp;"0123456789")),LEFT(ENTRIES!B23,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B24" s="4" cm="1">
+      <c r="B24" s="3" cm="1">
         <f t="array" ref="B24">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B23&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B23,LEN(ENTRIES!B23)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C24" s="4" t="str" cm="1">
+      <c r="C24" s="3" t="str" cm="1">
         <f t="array" ref="C24">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B23&amp;"0123456789")),LEFT(LABELS!B23,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="D24" s="4" cm="1">
+      <c r="D24" s="3" cm="1">
         <f t="array" ref="D24">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B23&amp;"0123456789")),VALUE(RIGHT(LABELS!B23,LEN(LABELS!B23)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str" cm="1">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str" cm="1">
         <f t="array" ref="A25">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B24&amp;"0123456789")),LEFT(ENTRIES!B24,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B25" s="4" cm="1">
+      <c r="B25" s="3" cm="1">
         <f t="array" ref="B25">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B24&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B24,LEN(ENTRIES!B24)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="str" cm="1">
+      <c r="C25" s="3" t="str" cm="1">
         <f t="array" ref="C25">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B24&amp;"0123456789")),LEFT(LABELS!B24,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="D25" s="4" cm="1">
+      <c r="D25" s="3" cm="1">
         <f t="array" ref="D25">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B24&amp;"0123456789")),VALUE(RIGHT(LABELS!B24,LEN(LABELS!B24)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str" cm="1">
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="str" cm="1">
         <f t="array" ref="A26">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B25&amp;"0123456789")),LEFT(ENTRIES!B25,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B26" s="4" cm="1">
+      <c r="B26" s="3" cm="1">
         <f t="array" ref="B26">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B25&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B25,LEN(ENTRIES!B25)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C26" s="4" t="str" cm="1">
+      <c r="C26" s="3" t="str" cm="1">
         <f t="array" ref="C26">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B25&amp;"0123456789")),LEFT(LABELS!B25,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="D26" s="4" cm="1">
+      <c r="D26" s="3" cm="1">
         <f t="array" ref="D26">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B25&amp;"0123456789")),VALUE(RIGHT(LABELS!B25,LEN(LABELS!B25)-_xlpm.number_position+1)))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str" cm="1">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="str" cm="1">
         <f t="array" ref="A27">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B26&amp;"0123456789")),LEFT(ENTRIES!B26,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B27" s="4" cm="1">
+      <c r="B27" s="3" cm="1">
         <f t="array" ref="B27">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B26&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B26,LEN(ENTRIES!B26)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C27" s="4" t="str" cm="1">
+      <c r="C27" s="3" t="str" cm="1">
         <f t="array" ref="C27">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B26&amp;"0123456789")),LEFT(LABELS!B26,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D27" s="4" cm="1">
+      <c r="D27" s="3" cm="1">
         <f t="array" ref="D27">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B26&amp;"0123456789")),VALUE(RIGHT(LABELS!B26,LEN(LABELS!B26)-_xlpm.number_position+1)))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str" cm="1">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="str" cm="1">
         <f t="array" ref="A28">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B27&amp;"0123456789")),LEFT(ENTRIES!B27,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B28" s="4" cm="1">
+      <c r="B28" s="3" cm="1">
         <f t="array" ref="B28">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B27&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B27,LEN(ENTRIES!B27)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C28" s="4" t="str" cm="1">
+      <c r="C28" s="3" t="str" cm="1">
         <f t="array" ref="C28">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B27&amp;"0123456789")),LEFT(LABELS!B27,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D28" s="4" cm="1">
+      <c r="D28" s="3" cm="1">
         <f t="array" ref="D28">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B27&amp;"0123456789")),VALUE(RIGHT(LABELS!B27,LEN(LABELS!B27)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str" cm="1">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="str" cm="1">
         <f t="array" ref="A29">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B28&amp;"0123456789")),LEFT(ENTRIES!B28,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B29" s="4" cm="1">
+      <c r="B29" s="3" cm="1">
         <f t="array" ref="B29">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B28&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B28,LEN(ENTRIES!B28)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C29" s="4" t="str" cm="1">
+      <c r="C29" s="3" t="str" cm="1">
         <f t="array" ref="C29">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B28&amp;"0123456789")),LEFT(LABELS!B28,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D29" s="4" cm="1">
+      <c r="D29" s="3" cm="1">
         <f t="array" ref="D29">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B28&amp;"0123456789")),VALUE(RIGHT(LABELS!B28,LEN(LABELS!B28)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str" cm="1">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="str" cm="1">
         <f t="array" ref="A30">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B29&amp;"0123456789")),LEFT(ENTRIES!B29,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B30" s="4" cm="1">
+      <c r="B30" s="3" cm="1">
         <f t="array" ref="B30">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B29&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B29,LEN(ENTRIES!B29)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="str" cm="1">
+      <c r="C30" s="3" t="str" cm="1">
         <f t="array" ref="C30">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B29&amp;"0123456789")),LEFT(LABELS!B29,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D30" s="4" cm="1">
+      <c r="D30" s="3" cm="1">
         <f t="array" ref="D30">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B29&amp;"0123456789")),VALUE(RIGHT(LABELS!B29,LEN(LABELS!B29)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str" cm="1">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="str" cm="1">
         <f t="array" ref="A31">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B30&amp;"0123456789")),LEFT(ENTRIES!B30,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B31" s="4" cm="1">
+      <c r="B31" s="3" cm="1">
         <f t="array" ref="B31">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B30&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B30,LEN(ENTRIES!B30)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C31" s="4" t="str" cm="1">
+      <c r="C31" s="3" t="str" cm="1">
         <f t="array" ref="C31">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B30&amp;"0123456789")),LEFT(LABELS!B30,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D31" s="4" cm="1">
+      <c r="D31" s="3" cm="1">
         <f t="array" ref="D31">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B30&amp;"0123456789")),VALUE(RIGHT(LABELS!B30,LEN(LABELS!B30)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str" cm="1">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="str" cm="1">
         <f t="array" ref="A32">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B31&amp;"0123456789")),LEFT(ENTRIES!B31,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B32" s="4" cm="1">
+      <c r="B32" s="3" cm="1">
         <f t="array" ref="B32">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B31&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B31,LEN(ENTRIES!B31)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C32" s="4" t="str" cm="1">
+      <c r="C32" s="3" t="str" cm="1">
         <f t="array" ref="C32">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B31&amp;"0123456789")),LEFT(LABELS!B31,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D32" s="4" cm="1">
+      <c r="D32" s="3" cm="1">
         <f t="array" ref="D32">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B31&amp;"0123456789")),VALUE(RIGHT(LABELS!B31,LEN(LABELS!B31)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str" cm="1">
+      <c r="A33" s="3" t="str" cm="1">
         <f t="array" ref="A33">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B32&amp;"0123456789")),LEFT(ENTRIES!B32,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B33" s="4" cm="1">
+      <c r="B33" s="3" cm="1">
         <f t="array" ref="B33">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B32&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B32,LEN(ENTRIES!B32)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
-      <c r="C33" s="4" t="str" cm="1">
+      <c r="C33" s="3" t="str" cm="1">
         <f t="array" ref="C33">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B32&amp;"0123456789")),LEFT(LABELS!B32,_xlpm.number_position-1))</f>
         <v>B</v>
       </c>
-      <c r="D33" s="4" cm="1">
+      <c r="D33" s="3" cm="1">
         <f t="array" ref="D33">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},LABELS!B32&amp;"0123456789")),VALUE(RIGHT(LABELS!B32,LEN(LABELS!B32)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str" cm="1">
+      <c r="A34" s="3" t="str" cm="1">
         <f t="array" ref="A34">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B33&amp;"0123456789")),LEFT(ENTRIES!B33,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B34" s="4" cm="1">
+      <c r="B34" s="3" cm="1">
         <f t="array" ref="B34">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B33&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B33,LEN(ENTRIES!B33)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str" cm="1">
+      <c r="A35" s="3" t="str" cm="1">
         <f t="array" ref="A35">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B34&amp;"0123456789")),LEFT(ENTRIES!B34,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B35" s="4" cm="1">
+      <c r="B35" s="3" cm="1">
         <f t="array" ref="B35">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B34&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B34,LEN(ENTRIES!B34)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str" cm="1">
+      <c r="A36" s="3" t="str" cm="1">
         <f t="array" ref="A36">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B35&amp;"0123456789")),LEFT(ENTRIES!B35,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B36" s="4" cm="1">
+      <c r="B36" s="3" cm="1">
         <f t="array" ref="B36">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B35&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B35,LEN(ENTRIES!B35)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="str" cm="1">
+      <c r="A37" s="3" t="str" cm="1">
         <f t="array" ref="A37">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B36&amp;"0123456789")),LEFT(ENTRIES!B36,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B37" s="4" cm="1">
+      <c r="B37" s="3" cm="1">
         <f t="array" ref="B37">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B36&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B36,LEN(ENTRIES!B36)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="str" cm="1">
+      <c r="A38" s="3" t="str" cm="1">
         <f t="array" ref="A38">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B37&amp;"0123456789")),LEFT(ENTRIES!B37,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B38" s="4" cm="1">
+      <c r="B38" s="3" cm="1">
         <f t="array" ref="B38">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B37&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B37,LEN(ENTRIES!B37)-_xlpm.number_position+1)))</f>
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="str" cm="1">
+      <c r="A39" s="3" t="str" cm="1">
         <f t="array" ref="A39">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B38&amp;"0123456789")),LEFT(ENTRIES!B38,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B39" s="4" cm="1">
+      <c r="B39" s="3" cm="1">
         <f t="array" ref="B39">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B38&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B38,LEN(ENTRIES!B38)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="str" cm="1">
+      <c r="A40" s="3" t="str" cm="1">
         <f t="array" ref="A40">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B39&amp;"0123456789")),LEFT(ENTRIES!B39,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B40" s="4" cm="1">
+      <c r="B40" s="3" cm="1">
         <f t="array" ref="B40">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B39&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B39,LEN(ENTRIES!B39)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="str" cm="1">
+      <c r="A41" s="3" t="str" cm="1">
         <f t="array" ref="A41">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B40&amp;"0123456789")),LEFT(ENTRIES!B40,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B41" s="4" cm="1">
+      <c r="B41" s="3" cm="1">
         <f t="array" ref="B41">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B40&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B40,LEN(ENTRIES!B40)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="str" cm="1">
+      <c r="A42" s="3" t="str" cm="1">
         <f t="array" ref="A42">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B41&amp;"0123456789")),LEFT(ENTRIES!B41,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B42" s="4" cm="1">
+      <c r="B42" s="3" cm="1">
         <f t="array" ref="B42">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B41&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B41,LEN(ENTRIES!B41)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="str" cm="1">
+      <c r="A43" s="3" t="str" cm="1">
         <f t="array" ref="A43">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B42&amp;"0123456789")),LEFT(ENTRIES!B42,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B43" s="4" cm="1">
+      <c r="B43" s="3" cm="1">
         <f t="array" ref="B43">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B42&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B42,LEN(ENTRIES!B42)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="str" cm="1">
+      <c r="A44" s="3" t="str" cm="1">
         <f t="array" ref="A44">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B43&amp;"0123456789")),LEFT(ENTRIES!B43,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B44" s="4" cm="1">
+      <c r="B44" s="3" cm="1">
         <f t="array" ref="B44">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B43&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B43,LEN(ENTRIES!B43)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="str" cm="1">
+      <c r="A45" s="3" t="str" cm="1">
         <f t="array" ref="A45">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B44&amp;"0123456789")),LEFT(ENTRIES!B44,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B45" s="4" cm="1">
+      <c r="B45" s="3" cm="1">
         <f t="array" ref="B45">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B44&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B44,LEN(ENTRIES!B44)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="str" cm="1">
+      <c r="A46" s="3" t="str" cm="1">
         <f t="array" ref="A46">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B45&amp;"0123456789")),LEFT(ENTRIES!B45,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B46" s="4" cm="1">
+      <c r="B46" s="3" cm="1">
         <f t="array" ref="B46">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B45&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B45,LEN(ENTRIES!B45)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="str" cm="1">
+      <c r="A47" s="3" t="str" cm="1">
         <f t="array" ref="A47">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B46&amp;"0123456789")),LEFT(ENTRIES!B46,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B47" s="4" cm="1">
+      <c r="B47" s="3" cm="1">
         <f t="array" ref="B47">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B46&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B46,LEN(ENTRIES!B46)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="str" cm="1">
+      <c r="A48" s="3" t="str" cm="1">
         <f t="array" ref="A48">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B47&amp;"0123456789")),LEFT(ENTRIES!B47,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B48" s="4" cm="1">
+      <c r="B48" s="3" cm="1">
         <f t="array" ref="B48">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B47&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B47,LEN(ENTRIES!B47)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="str" cm="1">
+      <c r="A49" s="3" t="str" cm="1">
         <f t="array" ref="A49">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B48&amp;"0123456789")),LEFT(ENTRIES!B48,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B49" s="4" cm="1">
+      <c r="B49" s="3" cm="1">
         <f t="array" ref="B49">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B48&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B48,LEN(ENTRIES!B48)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="str" cm="1">
+      <c r="A50" s="3" t="str" cm="1">
         <f t="array" ref="A50">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B49&amp;"0123456789")),LEFT(ENTRIES!B49,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B50" s="4" cm="1">
+      <c r="B50" s="3" cm="1">
         <f t="array" ref="B50">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B49&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B49,LEN(ENTRIES!B49)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str" cm="1">
+      <c r="A51" s="3" t="str" cm="1">
         <f t="array" ref="A51">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B50&amp;"0123456789")),LEFT(ENTRIES!B50,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B51" s="4" cm="1">
+      <c r="B51" s="3" cm="1">
         <f t="array" ref="B51">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B50&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B50,LEN(ENTRIES!B50)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str" cm="1">
+      <c r="A52" s="3" t="str" cm="1">
         <f t="array" ref="A52">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B51&amp;"0123456789")),LEFT(ENTRIES!B51,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B52" s="4" cm="1">
+      <c r="B52" s="3" cm="1">
         <f t="array" ref="B52">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B51&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B51,LEN(ENTRIES!B51)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str" cm="1">
+      <c r="A53" s="3" t="str" cm="1">
         <f t="array" ref="A53">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B52&amp;"0123456789")),LEFT(ENTRIES!B52,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B53" s="4" cm="1">
+      <c r="B53" s="3" cm="1">
         <f t="array" ref="B53">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B52&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B52,LEN(ENTRIES!B52)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str" cm="1">
+      <c r="A54" s="3" t="str" cm="1">
         <f t="array" ref="A54">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B53&amp;"0123456789")),LEFT(ENTRIES!B53,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B54" s="4" cm="1">
+      <c r="B54" s="3" cm="1">
         <f t="array" ref="B54">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B53&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B53,LEN(ENTRIES!B53)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str" cm="1">
+      <c r="A55" s="3" t="str" cm="1">
         <f t="array" ref="A55">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B54&amp;"0123456789")),LEFT(ENTRIES!B54,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B55" s="4" cm="1">
+      <c r="B55" s="3" cm="1">
         <f t="array" ref="B55">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B54&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B54,LEN(ENTRIES!B54)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str" cm="1">
+      <c r="A56" s="3" t="str" cm="1">
         <f t="array" ref="A56">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B55&amp;"0123456789")),LEFT(ENTRIES!B55,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B56" s="4" cm="1">
+      <c r="B56" s="3" cm="1">
         <f t="array" ref="B56">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B55&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B55,LEN(ENTRIES!B55)-_xlpm.number_position+1)))</f>
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str" cm="1">
+      <c r="A57" s="3" t="str" cm="1">
         <f t="array" ref="A57">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B56&amp;"0123456789")),LEFT(ENTRIES!B56,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B57" s="4" cm="1">
+      <c r="B57" s="3" cm="1">
         <f t="array" ref="B57">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B56&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B56,LEN(ENTRIES!B56)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str" cm="1">
+      <c r="A58" s="3" t="str" cm="1">
         <f t="array" ref="A58">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B57&amp;"0123456789")),LEFT(ENTRIES!B57,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B58" s="4" cm="1">
+      <c r="B58" s="3" cm="1">
         <f t="array" ref="B58">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B57&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B57,LEN(ENTRIES!B57)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str" cm="1">
+      <c r="A59" s="3" t="str" cm="1">
         <f t="array" ref="A59">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B58&amp;"0123456789")),LEFT(ENTRIES!B58,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B59" s="4" cm="1">
+      <c r="B59" s="3" cm="1">
         <f t="array" ref="B59">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B58&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B58,LEN(ENTRIES!B58)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str" cm="1">
+      <c r="A60" s="3" t="str" cm="1">
         <f t="array" ref="A60">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B59&amp;"0123456789")),LEFT(ENTRIES!B59,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B60" s="4" cm="1">
+      <c r="B60" s="3" cm="1">
         <f t="array" ref="B60">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B59&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B59,LEN(ENTRIES!B59)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str" cm="1">
+      <c r="A61" s="3" t="str" cm="1">
         <f t="array" ref="A61">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B60&amp;"0123456789")),LEFT(ENTRIES!B60,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B61" s="4" cm="1">
+      <c r="B61" s="3" cm="1">
         <f t="array" ref="B61">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B60&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B60,LEN(ENTRIES!B60)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str" cm="1">
+      <c r="A62" s="3" t="str" cm="1">
         <f t="array" ref="A62">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B61&amp;"0123456789")),LEFT(ENTRIES!B61,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B62" s="4" cm="1">
+      <c r="B62" s="3" cm="1">
         <f t="array" ref="B62">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B61&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B61,LEN(ENTRIES!B61)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="str" cm="1">
+      <c r="A63" s="3" t="str" cm="1">
         <f t="array" ref="A63">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B62&amp;"0123456789")),LEFT(ENTRIES!B62,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B63" s="4" cm="1">
+      <c r="B63" s="3" cm="1">
         <f t="array" ref="B63">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B62&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B62,LEN(ENTRIES!B62)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="str" cm="1">
+      <c r="A64" s="3" t="str" cm="1">
         <f t="array" ref="A64">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B63&amp;"0123456789")),LEFT(ENTRIES!B63,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B64" s="4" cm="1">
+      <c r="B64" s="3" cm="1">
         <f t="array" ref="B64">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B63&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B63,LEN(ENTRIES!B63)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="str" cm="1">
+      <c r="A65" s="3" t="str" cm="1">
         <f t="array" ref="A65">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B64&amp;"0123456789")),LEFT(ENTRIES!B64,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B65" s="4" cm="1">
+      <c r="B65" s="3" cm="1">
         <f t="array" ref="B65">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B64&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B64,LEN(ENTRIES!B64)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="str" cm="1">
+      <c r="A66" s="3" t="str" cm="1">
         <f t="array" ref="A66">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B65&amp;"0123456789")),LEFT(ENTRIES!B65,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B66" s="4" cm="1">
+      <c r="B66" s="3" cm="1">
         <f t="array" ref="B66">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B65&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B65,LEN(ENTRIES!B65)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="str" cm="1">
+      <c r="A67" s="3" t="str" cm="1">
         <f t="array" ref="A67">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B66&amp;"0123456789")),LEFT(ENTRIES!B66,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B67" s="4" cm="1">
+      <c r="B67" s="3" cm="1">
         <f t="array" ref="B67">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B66&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B66,LEN(ENTRIES!B66)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="str" cm="1">
+      <c r="A68" s="3" t="str" cm="1">
         <f t="array" ref="A68">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B67&amp;"0123456789")),LEFT(ENTRIES!B67,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B68" s="4" cm="1">
+      <c r="B68" s="3" cm="1">
         <f t="array" ref="B68">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B67&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B67,LEN(ENTRIES!B67)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str" cm="1">
+      <c r="A69" s="3" t="str" cm="1">
         <f t="array" ref="A69">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B68&amp;"0123456789")),LEFT(ENTRIES!B68,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B69" s="4" cm="1">
+      <c r="B69" s="3" cm="1">
         <f t="array" ref="B69">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B68&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B68,LEN(ENTRIES!B68)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="str" cm="1">
+      <c r="A70" s="3" t="str" cm="1">
         <f t="array" ref="A70">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B69&amp;"0123456789")),LEFT(ENTRIES!B69,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B70" s="4" cm="1">
+      <c r="B70" s="3" cm="1">
         <f t="array" ref="B70">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B69&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B69,LEN(ENTRIES!B69)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="str" cm="1">
+      <c r="A71" s="3" t="str" cm="1">
         <f t="array" ref="A71">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B70&amp;"0123456789")),LEFT(ENTRIES!B70,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B71" s="4" cm="1">
+      <c r="B71" s="3" cm="1">
         <f t="array" ref="B71">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B70&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B70,LEN(ENTRIES!B70)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="str" cm="1">
+      <c r="A72" s="3" t="str" cm="1">
         <f t="array" ref="A72">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B71&amp;"0123456789")),LEFT(ENTRIES!B71,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B72" s="4" cm="1">
+      <c r="B72" s="3" cm="1">
         <f t="array" ref="B72">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B71&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B71,LEN(ENTRIES!B71)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="str" cm="1">
+      <c r="A73" s="3" t="str" cm="1">
         <f t="array" ref="A73">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B72&amp;"0123456789")),LEFT(ENTRIES!B72,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B73" s="4" cm="1">
+      <c r="B73" s="3" cm="1">
         <f t="array" ref="B73">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B72&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B72,LEN(ENTRIES!B72)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="str" cm="1">
+      <c r="A74" s="3" t="str" cm="1">
         <f t="array" ref="A74">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B73&amp;"0123456789")),LEFT(ENTRIES!B73,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B74" s="4" cm="1">
+      <c r="B74" s="3" cm="1">
         <f t="array" ref="B74">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B73&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B73,LEN(ENTRIES!B73)-_xlpm.number_position+1)))</f>
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="str" cm="1">
+      <c r="A75" s="3" t="str" cm="1">
         <f t="array" ref="A75">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B74&amp;"0123456789")),LEFT(ENTRIES!B74,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B75" s="4" cm="1">
+      <c r="B75" s="3" cm="1">
         <f t="array" ref="B75">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B74&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B74,LEN(ENTRIES!B74)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="str" cm="1">
+      <c r="A76" s="3" t="str" cm="1">
         <f t="array" ref="A76">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B75&amp;"0123456789")),LEFT(ENTRIES!B75,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B76" s="4" cm="1">
+      <c r="B76" s="3" cm="1">
         <f t="array" ref="B76">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B75&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B75,LEN(ENTRIES!B75)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="str" cm="1">
+      <c r="A77" s="3" t="str" cm="1">
         <f t="array" ref="A77">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B76&amp;"0123456789")),LEFT(ENTRIES!B76,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B77" s="4" cm="1">
+      <c r="B77" s="3" cm="1">
         <f t="array" ref="B77">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B76&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B76,LEN(ENTRIES!B76)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="str" cm="1">
+      <c r="A78" s="3" t="str" cm="1">
         <f t="array" ref="A78">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B77&amp;"0123456789")),LEFT(ENTRIES!B77,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B78" s="4" cm="1">
+      <c r="B78" s="3" cm="1">
         <f t="array" ref="B78">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B77&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B77,LEN(ENTRIES!B77)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="str" cm="1">
+      <c r="A79" s="3" t="str" cm="1">
         <f t="array" ref="A79">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B78&amp;"0123456789")),LEFT(ENTRIES!B78,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B79" s="4" cm="1">
+      <c r="B79" s="3" cm="1">
         <f t="array" ref="B79">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B78&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B78,LEN(ENTRIES!B78)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str" cm="1">
+      <c r="A80" s="3" t="str" cm="1">
         <f t="array" ref="A80">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B79&amp;"0123456789")),LEFT(ENTRIES!B79,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B80" s="4" cm="1">
+      <c r="B80" s="3" cm="1">
         <f t="array" ref="B80">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B79&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B79,LEN(ENTRIES!B79)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="str" cm="1">
+      <c r="A81" s="3" t="str" cm="1">
         <f t="array" ref="A81">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B80&amp;"0123456789")),LEFT(ENTRIES!B80,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B81" s="4" cm="1">
+      <c r="B81" s="3" cm="1">
         <f t="array" ref="B81">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B80&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B80,LEN(ENTRIES!B80)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="str" cm="1">
+      <c r="A82" s="3" t="str" cm="1">
         <f t="array" ref="A82">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B81&amp;"0123456789")),LEFT(ENTRIES!B81,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B82" s="4" cm="1">
+      <c r="B82" s="3" cm="1">
         <f t="array" ref="B82">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B81&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B81,LEN(ENTRIES!B81)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="str" cm="1">
+      <c r="A83" s="3" t="str" cm="1">
         <f t="array" ref="A83">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B82&amp;"0123456789")),LEFT(ENTRIES!B82,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B83" s="4" cm="1">
+      <c r="B83" s="3" cm="1">
         <f t="array" ref="B83">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B82&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B82,LEN(ENTRIES!B82)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="str" cm="1">
+      <c r="A84" s="3" t="str" cm="1">
         <f t="array" ref="A84">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B83&amp;"0123456789")),LEFT(ENTRIES!B83,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B84" s="4" cm="1">
+      <c r="B84" s="3" cm="1">
         <f t="array" ref="B84">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B83&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B83,LEN(ENTRIES!B83)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="str" cm="1">
+      <c r="A85" s="3" t="str" cm="1">
         <f t="array" ref="A85">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B84&amp;"0123456789")),LEFT(ENTRIES!B84,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B85" s="4" cm="1">
+      <c r="B85" s="3" cm="1">
         <f t="array" ref="B85">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B84&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B84,LEN(ENTRIES!B84)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="str" cm="1">
+      <c r="A86" s="3" t="str" cm="1">
         <f t="array" ref="A86">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B85&amp;"0123456789")),LEFT(ENTRIES!B85,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B86" s="4" cm="1">
+      <c r="B86" s="3" cm="1">
         <f t="array" ref="B86">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B85&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B85,LEN(ENTRIES!B85)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="str" cm="1">
+      <c r="A87" s="3" t="str" cm="1">
         <f t="array" ref="A87">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B86&amp;"0123456789")),LEFT(ENTRIES!B86,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B87" s="4" cm="1">
+      <c r="B87" s="3" cm="1">
         <f t="array" ref="B87">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B86&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B86,LEN(ENTRIES!B86)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="str" cm="1">
+      <c r="A88" s="3" t="str" cm="1">
         <f t="array" ref="A88">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B87&amp;"0123456789")),LEFT(ENTRIES!B87,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B88" s="4" cm="1">
+      <c r="B88" s="3" cm="1">
         <f t="array" ref="B88">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B87&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B87,LEN(ENTRIES!B87)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="str" cm="1">
+      <c r="A89" s="3" t="str" cm="1">
         <f t="array" ref="A89">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B88&amp;"0123456789")),LEFT(ENTRIES!B88,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B89" s="4" cm="1">
+      <c r="B89" s="3" cm="1">
         <f t="array" ref="B89">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B88&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B88,LEN(ENTRIES!B88)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="str" cm="1">
+      <c r="A90" s="3" t="str" cm="1">
         <f t="array" ref="A90">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B89&amp;"0123456789")),LEFT(ENTRIES!B89,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B90" s="4" cm="1">
+      <c r="B90" s="3" cm="1">
         <f t="array" ref="B90">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B89&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B89,LEN(ENTRIES!B89)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="str" cm="1">
+      <c r="A91" s="3" t="str" cm="1">
         <f t="array" ref="A91">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B90&amp;"0123456789")),LEFT(ENTRIES!B90,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B91" s="4" cm="1">
+      <c r="B91" s="3" cm="1">
         <f t="array" ref="B91">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B90&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B90,LEN(ENTRIES!B90)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="str" cm="1">
+      <c r="A92" s="3" t="str" cm="1">
         <f t="array" ref="A92">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B91&amp;"0123456789")),LEFT(ENTRIES!B91,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B92" s="4" cm="1">
+      <c r="B92" s="3" cm="1">
         <f t="array" ref="B92">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B91&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B91,LEN(ENTRIES!B91)-_xlpm.number_position+1)))</f>
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="str" cm="1">
+      <c r="A93" s="3" t="str" cm="1">
         <f t="array" ref="A93">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B92&amp;"0123456789")),LEFT(ENTRIES!B92,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B93" s="4" cm="1">
+      <c r="B93" s="3" cm="1">
         <f t="array" ref="B93">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B92&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B92,LEN(ENTRIES!B92)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="str" cm="1">
+      <c r="A94" s="3" t="str" cm="1">
         <f t="array" ref="A94">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B93&amp;"0123456789")),LEFT(ENTRIES!B93,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B94" s="4" cm="1">
+      <c r="B94" s="3" cm="1">
         <f t="array" ref="B94">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B93&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B93,LEN(ENTRIES!B93)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="str" cm="1">
+      <c r="A95" s="3" t="str" cm="1">
         <f t="array" ref="A95">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B94&amp;"0123456789")),LEFT(ENTRIES!B94,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B95" s="4" cm="1">
+      <c r="B95" s="3" cm="1">
         <f t="array" ref="B95">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B94&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B94,LEN(ENTRIES!B94)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="str" cm="1">
+      <c r="A96" s="3" t="str" cm="1">
         <f t="array" ref="A96">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B95&amp;"0123456789")),LEFT(ENTRIES!B95,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B96" s="4" cm="1">
+      <c r="B96" s="3" cm="1">
         <f t="array" ref="B96">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B95&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B95,LEN(ENTRIES!B95)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="str" cm="1">
+      <c r="A97" s="3" t="str" cm="1">
         <f t="array" ref="A97">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B96&amp;"0123456789")),LEFT(ENTRIES!B96,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B97" s="4" cm="1">
+      <c r="B97" s="3" cm="1">
         <f t="array" ref="B97">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B96&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B96,LEN(ENTRIES!B96)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="str" cm="1">
+      <c r="A98" s="3" t="str" cm="1">
         <f t="array" ref="A98">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B97&amp;"0123456789")),LEFT(ENTRIES!B97,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B98" s="4" cm="1">
+      <c r="B98" s="3" cm="1">
         <f t="array" ref="B98">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B97&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B97,LEN(ENTRIES!B97)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="str" cm="1">
+      <c r="A99" s="3" t="str" cm="1">
         <f t="array" ref="A99">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B98&amp;"0123456789")),LEFT(ENTRIES!B98,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B99" s="4" cm="1">
+      <c r="B99" s="3" cm="1">
         <f t="array" ref="B99">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B98&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B98,LEN(ENTRIES!B98)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="str" cm="1">
+      <c r="A100" s="3" t="str" cm="1">
         <f t="array" ref="A100">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B99&amp;"0123456789")),LEFT(ENTRIES!B99,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B100" s="4" cm="1">
+      <c r="B100" s="3" cm="1">
         <f t="array" ref="B100">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B99&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B99,LEN(ENTRIES!B99)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="str" cm="1">
+      <c r="A101" s="3" t="str" cm="1">
         <f t="array" ref="A101">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B100&amp;"0123456789")),LEFT(ENTRIES!B100,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B101" s="4" cm="1">
+      <c r="B101" s="3" cm="1">
         <f t="array" ref="B101">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B100&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B100,LEN(ENTRIES!B100)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="str" cm="1">
+      <c r="A102" s="3" t="str" cm="1">
         <f t="array" ref="A102">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B101&amp;"0123456789")),LEFT(ENTRIES!B101,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B102" s="4" cm="1">
+      <c r="B102" s="3" cm="1">
         <f t="array" ref="B102">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B101&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B101,LEN(ENTRIES!B101)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="str" cm="1">
+      <c r="A103" s="3" t="str" cm="1">
         <f t="array" ref="A103">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B102&amp;"0123456789")),LEFT(ENTRIES!B102,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B103" s="4" cm="1">
+      <c r="B103" s="3" cm="1">
         <f t="array" ref="B103">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B102&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B102,LEN(ENTRIES!B102)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="str" cm="1">
+      <c r="A104" s="3" t="str" cm="1">
         <f t="array" ref="A104">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B103&amp;"0123456789")),LEFT(ENTRIES!B103,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B104" s="4" cm="1">
+      <c r="B104" s="3" cm="1">
         <f t="array" ref="B104">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B103&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B103,LEN(ENTRIES!B103)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="str" cm="1">
+      <c r="A105" s="3" t="str" cm="1">
         <f t="array" ref="A105">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B104&amp;"0123456789")),LEFT(ENTRIES!B104,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B105" s="4" cm="1">
+      <c r="B105" s="3" cm="1">
         <f t="array" ref="B105">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B104&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B104,LEN(ENTRIES!B104)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="str" cm="1">
+      <c r="A106" s="3" t="str" cm="1">
         <f t="array" ref="A106">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B105&amp;"0123456789")),LEFT(ENTRIES!B105,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B106" s="4" cm="1">
+      <c r="B106" s="3" cm="1">
         <f t="array" ref="B106">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B105&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B105,LEN(ENTRIES!B105)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="str" cm="1">
+      <c r="A107" s="3" t="str" cm="1">
         <f t="array" ref="A107">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B106&amp;"0123456789")),LEFT(ENTRIES!B106,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B107" s="4" cm="1">
+      <c r="B107" s="3" cm="1">
         <f t="array" ref="B107">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B106&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B106,LEN(ENTRIES!B106)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="str" cm="1">
+      <c r="A108" s="3" t="str" cm="1">
         <f t="array" ref="A108">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B107&amp;"0123456789")),LEFT(ENTRIES!B107,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B108" s="4" cm="1">
+      <c r="B108" s="3" cm="1">
         <f t="array" ref="B108">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B107&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B107,LEN(ENTRIES!B107)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="str" cm="1">
+      <c r="A109" s="3" t="str" cm="1">
         <f t="array" ref="A109">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B108&amp;"0123456789")),LEFT(ENTRIES!B108,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B109" s="4" cm="1">
+      <c r="B109" s="3" cm="1">
         <f t="array" ref="B109">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B108&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B108,LEN(ENTRIES!B108)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="str" cm="1">
+      <c r="A110" s="3" t="str" cm="1">
         <f t="array" ref="A110">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B109&amp;"0123456789")),LEFT(ENTRIES!B109,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B110" s="4" cm="1">
+      <c r="B110" s="3" cm="1">
         <f t="array" ref="B110">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B109&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B109,LEN(ENTRIES!B109)-_xlpm.number_position+1)))</f>
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="str" cm="1">
+      <c r="A111" s="3" t="str" cm="1">
         <f t="array" ref="A111">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B110&amp;"0123456789")),LEFT(ENTRIES!B110,_xlpm.number_position-1))</f>
         <v>C</v>
       </c>
-      <c r="B111" s="4" cm="1">
+      <c r="B111" s="3" cm="1">
         <f t="array" ref="B111">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B110&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B110,LEN(ENTRIES!B110)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="str" cm="1">
+      <c r="A112" s="3" t="str" cm="1">
         <f t="array" ref="A112">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B111&amp;"0123456789")),LEFT(ENTRIES!B111,_xlpm.number_position-1))</f>
         <v>D</v>
       </c>
-      <c r="B112" s="4" cm="1">
+      <c r="B112" s="3" cm="1">
         <f t="array" ref="B112">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B111&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B111,LEN(ENTRIES!B111)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="str" cm="1">
+      <c r="A113" s="3" t="str" cm="1">
         <f t="array" ref="A113">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B112&amp;"0123456789")),LEFT(ENTRIES!B112,_xlpm.number_position-1))</f>
         <v>E</v>
       </c>
-      <c r="B113" s="4" cm="1">
+      <c r="B113" s="3" cm="1">
         <f t="array" ref="B113">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B112&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B112,LEN(ENTRIES!B112)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="str" cm="1">
+      <c r="A114" s="3" t="str" cm="1">
         <f t="array" ref="A114">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B113&amp;"0123456789")),LEFT(ENTRIES!B113,_xlpm.number_position-1))</f>
         <v>F</v>
       </c>
-      <c r="B114" s="4" cm="1">
+      <c r="B114" s="3" cm="1">
         <f t="array" ref="B114">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B113&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B113,LEN(ENTRIES!B113)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="str" cm="1">
+      <c r="A115" s="3" t="str" cm="1">
         <f t="array" ref="A115">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B114&amp;"0123456789")),LEFT(ENTRIES!B114,_xlpm.number_position-1))</f>
         <v>G</v>
       </c>
-      <c r="B115" s="4" cm="1">
+      <c r="B115" s="3" cm="1">
         <f t="array" ref="B115">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B114&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B114,LEN(ENTRIES!B114)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="str" cm="1">
+      <c r="A116" s="3" t="str" cm="1">
         <f t="array" ref="A116">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B115&amp;"0123456789")),LEFT(ENTRIES!B115,_xlpm.number_position-1))</f>
         <v>H</v>
       </c>
-      <c r="B116" s="4" cm="1">
+      <c r="B116" s="3" cm="1">
         <f t="array" ref="B116">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B115&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B115,LEN(ENTRIES!B115)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="str" cm="1">
+      <c r="A117" s="3" t="str" cm="1">
         <f t="array" ref="A117">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B116&amp;"0123456789")),LEFT(ENTRIES!B116,_xlpm.number_position-1))</f>
         <v>I</v>
       </c>
-      <c r="B117" s="4" cm="1">
+      <c r="B117" s="3" cm="1">
         <f t="array" ref="B117">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B116&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B116,LEN(ENTRIES!B116)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="str" cm="1">
+      <c r="A118" s="3" t="str" cm="1">
         <f t="array" ref="A118">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B117&amp;"0123456789")),LEFT(ENTRIES!B117,_xlpm.number_position-1))</f>
         <v>J</v>
       </c>
-      <c r="B118" s="4" cm="1">
+      <c r="B118" s="3" cm="1">
         <f t="array" ref="B118">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B117&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B117,LEN(ENTRIES!B117)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="str" cm="1">
+      <c r="A119" s="3" t="str" cm="1">
         <f t="array" ref="A119">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B118&amp;"0123456789")),LEFT(ENTRIES!B118,_xlpm.number_position-1))</f>
         <v>K</v>
       </c>
-      <c r="B119" s="4" cm="1">
+      <c r="B119" s="3" cm="1">
         <f t="array" ref="B119">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B118&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B118,LEN(ENTRIES!B118)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="str" cm="1">
+      <c r="A120" s="3" t="str" cm="1">
         <f t="array" ref="A120">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B119&amp;"0123456789")),LEFT(ENTRIES!B119,_xlpm.number_position-1))</f>
         <v>L</v>
       </c>
-      <c r="B120" s="4" cm="1">
+      <c r="B120" s="3" cm="1">
         <f t="array" ref="B120">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B119&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B119,LEN(ENTRIES!B119)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="str" cm="1">
+      <c r="A121" s="3" t="str" cm="1">
         <f t="array" ref="A121">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B120&amp;"0123456789")),LEFT(ENTRIES!B120,_xlpm.number_position-1))</f>
         <v>M</v>
       </c>
-      <c r="B121" s="4" cm="1">
+      <c r="B121" s="3" cm="1">
         <f t="array" ref="B121">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B120&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B120,LEN(ENTRIES!B120)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="str" cm="1">
+      <c r="A122" s="3" t="str" cm="1">
         <f t="array" ref="A122">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B121&amp;"0123456789")),LEFT(ENTRIES!B121,_xlpm.number_position-1))</f>
         <v>N</v>
       </c>
-      <c r="B122" s="4" cm="1">
+      <c r="B122" s="3" cm="1">
         <f t="array" ref="B122">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B121&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B121,LEN(ENTRIES!B121)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="str" cm="1">
+      <c r="A123" s="3" t="str" cm="1">
         <f t="array" ref="A123">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B122&amp;"0123456789")),LEFT(ENTRIES!B122,_xlpm.number_position-1))</f>
         <v>O</v>
       </c>
-      <c r="B123" s="4" cm="1">
+      <c r="B123" s="3" cm="1">
         <f t="array" ref="B123">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B122&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B122,LEN(ENTRIES!B122)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="str" cm="1">
+      <c r="A124" s="3" t="str" cm="1">
         <f t="array" ref="A124">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B123&amp;"0123456789")),LEFT(ENTRIES!B123,_xlpm.number_position-1))</f>
         <v>P</v>
       </c>
-      <c r="B124" s="4" cm="1">
+      <c r="B124" s="3" cm="1">
         <f t="array" ref="B124">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B123&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B123,LEN(ENTRIES!B123)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="str" cm="1">
+      <c r="A125" s="3" t="str" cm="1">
         <f t="array" ref="A125">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B124&amp;"0123456789")),LEFT(ENTRIES!B124,_xlpm.number_position-1))</f>
         <v>Q</v>
       </c>
-      <c r="B125" s="4" cm="1">
+      <c r="B125" s="3" cm="1">
         <f t="array" ref="B125">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B124&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B124,LEN(ENTRIES!B124)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="str" cm="1">
+      <c r="A126" s="3" t="str" cm="1">
         <f t="array" ref="A126">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B125&amp;"0123456789")),LEFT(ENTRIES!B125,_xlpm.number_position-1))</f>
         <v>R</v>
       </c>
-      <c r="B126" s="4" cm="1">
+      <c r="B126" s="3" cm="1">
         <f t="array" ref="B126">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B125&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B125,LEN(ENTRIES!B125)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="str" cm="1">
+      <c r="A127" s="3" t="str" cm="1">
         <f t="array" ref="A127">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B126&amp;"0123456789")),LEFT(ENTRIES!B126,_xlpm.number_position-1))</f>
         <v>S</v>
       </c>
-      <c r="B127" s="4" cm="1">
+      <c r="B127" s="3" cm="1">
         <f t="array" ref="B127">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B126&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B126,LEN(ENTRIES!B126)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="str" cm="1">
+      <c r="A128" s="3" t="str" cm="1">
         <f t="array" ref="A128">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B127&amp;"0123456789")),LEFT(ENTRIES!B127,_xlpm.number_position-1))</f>
         <v>T</v>
       </c>
-      <c r="B128" s="4" cm="1">
+      <c r="B128" s="3" cm="1">
         <f t="array" ref="B128">_xlfn.LET(_xlpm.number_position,MIN(FIND({0,1,2,3,4,5,6,7,8,9},ENTRIES!B127&amp;"0123456789")),VALUE(RIGHT(ENTRIES!B127,LEN(ENTRIES!B127)-_xlpm.number_position+1)))</f>
         <v>11</v>
       </c>
